--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value643.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value643.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.235500635007244</v>
+        <v>1.181928873062134</v>
       </c>
       <c r="B1">
-        <v>2.241030061269032</v>
+        <v>2.329928159713745</v>
       </c>
       <c r="C1">
-        <v>3.015602880967553</v>
+        <v>3.831974983215332</v>
       </c>
       <c r="D1">
-        <v>3.497508526792304</v>
+        <v>3.096009492874146</v>
       </c>
       <c r="E1">
-        <v>1.517179357206897</v>
+        <v>1.142207145690918</v>
       </c>
     </row>
   </sheetData>
